--- a/docs/設計書.xlsx
+++ b/docs/設計書.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,30 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>Rails8.1 + Ruby3.3.4、Turbo/Stimulus、SQLite(開発)。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>割引アーキテクチャ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>割引マスタ(method/discount_type/target_scope/conditions/combinability/cap)+DiscountEngine(SERVICE)で％→円→税→丸めを統一し、EventDiscountSnapshotへJSON保存して監査再現性を担保する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>割引仕様アップデート</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>割引マスタにスコープ/priority/併用ルール/期間/上限を保持し、DiscountEngineでセット→学/スタッフ→早割＋％先行＋丸め(floor)＋割引後課税を実装。計算結果はevent_discount_snapshotsへ保存。</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,7 +1243,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>kind: percentage/fixed</t>
+          <t>方法/スコープ/priority/条件/期間/併用/上限/丸め設定を保持</t>
         </is>
       </c>
     </row>
@@ -1254,6 +1278,40 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>CSVインポート結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>割引スナップショット</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>割引結果JSON + 再計算用メタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>割引スナップショット</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>割引適用結果と丸め/税モード/計算ログ</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,7 +2688,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>percentage/fixed</t>
+          <t>割引方法: percentage/fixed/perk/shipping</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2742,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>適用順</t>
+          <t>適用順序。数値が小さいほど優先。割引額比較で同値時に参照</t>
         </is>
       </c>
     </row>
@@ -2989,6 +3047,859 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>備考 0〜1,000字。表示時は要約+詳細展開</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>discount_type</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>セット/学割/スタッフ割/早割などのカテゴリ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>target_scope</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ticket/drink/merch/total 等の適用範囲</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>conditions_json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NOT NULL default {}</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>最低金額/数量/会場/時間帯/クーポン/ロール条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>valid_from</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>割引開始日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>valid_until</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>割引終了日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>combinability</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NOT NULL default "stackable"</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>stackable/same_scope_exclusive/exclusive</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cap_amount</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>割引上限金額</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>usage_limit_per_user</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ユーザー単位の利用回数制限</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>usage_limit_per_event</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>イベント単位の利用回数制限</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>round_mode</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NOT NULL default "round"</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>round/floor/ceil設定</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>FK -&gt; events</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>対象イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>applied_at</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>確定日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>round_mode</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>適用時丸めモード</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tax_mode</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>値引き後課税/外部固定など</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>割引ID/版/順序/対象範囲/計算過程</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>total_after_discount</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>割引後合計</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>created_log</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>根拠ログ/エラー情報</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>target_scope</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ticket/drink/merch/total</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>combinability</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NOT NULL default "stackable"</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>stackable / same_scope_exclusive / exclusive</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>usage_limit_per_user</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ユーザー単位の利用回数制限</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>usage_limit_per_event</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>イベント単位の利用回数制限</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>round_mode</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NOT NULL default "floor"</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>round/floor/ceil設定</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>conditions_json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NOT NULL default {}</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>最低金額/数量/属性/会場/時間帯/クーポン条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>valid_from</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>割引開始日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>valid_until</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>割引終了日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>FK -&gt; events</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>対象イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>applied_at</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>適用日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>割引ID/スコープ/順序/比較根拠/丸め/税モード/金額内訳</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>round_mode</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>適用時丸めモード</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>tax_mode</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>割引後課税/外部固定など</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>total_after_discount</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>割引後合計</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>created_log</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>計算根拠/エラー情報</t>
         </is>
       </c>
     </row>
@@ -3946,7 +4857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4215,7 +5126,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>早割/学割/取置</t>
+          <t>割引マスタ(円/％/特典/その他)にスコープ/priority/条件/期間/併用/上限/丸め設定を保持し、管理UIで編集</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4237,7 +5148,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10%→500円→200円</t>
+          <t>セット割→学割/スタッフ割→早割の適用順序、％先行、学割vsスタッフ割の排他(割引額比較/priority)をDiscountEngineで制御</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4771,6 +5682,94 @@
       <c r="D37" t="inlineStr">
         <is>
           <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FR-38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>割引シミュレーター</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>選択割引を即時計算し内訳/税/丸め/適用不可理由を表示</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>追加要件</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FR-39</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>割引スナップショット</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>適用時に割引ID・順序・丸め/税モード・結果をJSONで保存</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>追加要件</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FR-40</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>割引監査API</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>スナップショットから当時設定で再計算し証跡を提示</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>追加要件</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FR-41</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>割引ステータス表示</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>割引カードに状態バッジ/併用可否/priorityを表示し条件外は自動disable</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>追加要件</t>
         </is>
       </c>
     </row>
